--- a/parameters_AgeDifferences.xlsx
+++ b/parameters_AgeDifferences.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85d6a4f253d5646a/Documents/GitHub/VirusSim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB9F48BC-8F0B-44A6-83D1-DA4DC8E9C299}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{895FC16F-3816-4A84-BCBA-60668E5921F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6C3B55F8-B585-4162-9FE2-F0FF5F6C5CE8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{9B14E82E-E413-449D-BF19-D40E9F169A13}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{9B14E82E-E413-449D-BF19-D40E9F169A13}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Below 60</t>
   </si>
@@ -151,6 +153,90 @@
   </si>
   <si>
     <t>N in ICU</t>
+  </si>
+  <si>
+    <t>Parameters that do not change per scenario</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>probability of death after rejection</t>
+  </si>
+  <si>
+    <t>ICU beds taken by covid patients</t>
+  </si>
+  <si>
+    <t>ICU beds taken by non-covid patients</t>
+  </si>
+  <si>
+    <t>Number of covid cases at start (N0)</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Vaccinated</t>
+  </si>
+  <si>
+    <t>Previously infected</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Parameters that do  change per scenario</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T_c</t>
+  </si>
+  <si>
+    <t>1.01, 1.06, 1.11</t>
+  </si>
+  <si>
+    <t>Total ICU beds</t>
+  </si>
+  <si>
+    <t>1400, 1700, 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of cases for people below 60 </t>
+  </si>
+  <si>
+    <t>85%, 90%</t>
+  </si>
+  <si>
+    <t>To clarify: changing the number of old people changes other parameters:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of ICU patients  below 60 </t>
+  </si>
+  <si>
+    <t>13% if below 60, 39.8% if 60 or above</t>
+  </si>
+  <si>
+    <t>ICU rate</t>
+  </si>
+  <si>
+    <t>32% (SQ), 33% ( if percentage of cases for people below 60 goes to 90%, based on bayes formula)</t>
+  </si>
+  <si>
+    <t>6.2% (SQ), 4.8% (if percentage of cases for people below 60 goes to 90%)</t>
+  </si>
+  <si>
+    <t>Total scenarios</t>
+  </si>
+  <si>
+    <t>Length of stay</t>
+  </si>
+  <si>
+    <t>KDE from empirical distribution</t>
   </si>
 </sst>
 </file>
@@ -158,9 +244,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +283,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -218,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -226,20 +320,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D25EE1C-306C-4319-B74C-94CCEBA07FED}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -983,6 +1107,10 @@
       <c r="K15" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="N15">
+        <f>B11/C21</f>
+        <v>6.1846653903893566E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -1100,4 +1228,190 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1558231B-E987-41E2-8FCD-2F35A3476291}">
+  <dimension ref="B2:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="30.453125" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" customWidth="1"/>
+    <col min="5" max="5" width="5.6328125" customWidth="1"/>
+    <col min="6" max="6" width="43.08984375" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="F2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>0.99</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>700</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <f>7000*7</f>
+        <v>49000</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="14">
+        <f>3*3*2</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <f>17.5*1000000</f>
+        <v>17500000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <f>2.5*1000000</f>
+        <v>2500000</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <f>1.25*1000000</f>
+        <v>1250000</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <f>D8-D9-D10</f>
+        <v>13750000</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>